--- a/biology/Zoologie/Chelonoidis_hoodensis/Chelonoidis_hoodensis.xlsx
+++ b/biology/Zoologie/Chelonoidis_hoodensis/Chelonoidis_hoodensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelonoidis hoodensis est une espèce de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelonoidis hoodensis est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Española aux Galápagos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Española aux Galápagos.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait partie du complexe d'espèces des tortues géantes des Galapagos. Elle est parfois considérée comme une sous-espèce de Chelonoidis nigra.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de hood et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Española, aussi nommée île Hood.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Van Denburgh, 1907 : Expedition of the California Academy of Sciences to the Galapagos Islands, 1905–1906. I. Preliminary descriptions of four new races of gigantic land tortoises from the Galapagos Islands. Proceedings of the California Academy of Sciences, ser. 4, vol. 1, p. 1–6 (texte intégral).</t>
         </is>
